--- a/data/analysis/stream_order_proxies_TSA.xlsx
+++ b/data/analysis/stream_order_proxies_TSA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\THLB_Proxy\data\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9C2F66-053A-49EC-9968-999245A4DFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63EB577-6FE2-429E-870E-2788612A1AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="300" windowWidth="26940" windowHeight="19320" activeTab="1" xr2:uid="{896D4BF2-6796-401A-A905-2BDC8D3E45E0}"/>
+    <workbookView xWindow="2660" yWindow="50" windowWidth="13100" windowHeight="10790" activeTab="1" xr2:uid="{896D4BF2-6796-401A-A905-2BDC8D3E45E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="152">
   <si>
     <t>Pacific</t>
   </si>
@@ -493,13 +493,19 @@
   </si>
   <si>
     <t>At this time there is not a data base that identifies a stream class for each stream reach within the Okanagan TSA. Instead of a specific riparian buffer for each stream class, a weighted average riparian buffer width across all streams, that was calculated for the Okanagan TSA based on an assessment of stream class distribution by Wild Stone Resources, will be used. This average reserve width of 12.4 metres is applied to each side of all streams (S1 to S6) identified in the Okanagan TSA timber supply review file (FWA-based streams).</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>FLP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -522,8 +528,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -533,6 +554,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -545,11 +571,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -570,12 +598,17 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1444,15 +1477,15 @@
   <dimension ref="A1:W44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P20" sqref="P20:T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" customWidth="1"/>
     <col min="2" max="2" width="10.5546875" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
     <col min="4" max="5" width="8.6640625" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="10" width="7.5546875" style="8" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="6.21875" style="8" bestFit="1" customWidth="1"/>
@@ -1643,37 +1676,37 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="9" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:23" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="11">
         <v>23</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="V4" s="9" t="s">
+      <c r="V4" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="W4" s="10" t="s">
+      <c r="W4" s="13" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2350,68 +2383,68 @@
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:23" s="11" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="11">
         <v>11</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="I20" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="K20" s="11" t="s">
+      <c r="K20" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="L20" s="11" t="s">
+      <c r="L20" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="M20" s="11" t="s">
+      <c r="M20" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="N20" s="11" t="s">
+      <c r="N20" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="O20" s="11" t="s">
+      <c r="O20" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="P20" s="11" t="s">
+      <c r="P20" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="Q20" s="11" t="s">
+      <c r="Q20" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="R20" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="S20" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="T20" s="11" t="s">
+      <c r="R20" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="S20" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="T20" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="U20" s="11" t="s">
+      <c r="U20" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="V20" s="9" t="s">
+      <c r="V20" s="11" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2776,68 +2809,68 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:23" s="9" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
+    <row r="30" spans="1:23" s="11" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="11">
         <v>22</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="12">
         <v>12.4</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="12">
         <v>12.4</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="12">
         <v>12.4</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G30" s="12">
         <v>12.4</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H30" s="12">
         <v>12.4</v>
       </c>
-      <c r="I30" s="11">
+      <c r="I30" s="12">
         <v>12.4</v>
       </c>
-      <c r="J30" s="11">
+      <c r="J30" s="12">
         <v>12.4</v>
       </c>
-      <c r="K30" s="11">
+      <c r="K30" s="12">
         <v>10</v>
       </c>
-      <c r="L30" s="11">
+      <c r="L30" s="12">
         <v>10</v>
       </c>
-      <c r="M30" s="11">
+      <c r="M30" s="12">
         <v>15</v>
       </c>
-      <c r="N30" s="11">
+      <c r="N30" s="12">
         <v>7.5</v>
       </c>
-      <c r="O30" s="11">
+      <c r="O30" s="12">
         <v>7.5</v>
       </c>
-      <c r="P30" s="11">
+      <c r="P30" s="12">
         <v>20</v>
       </c>
-      <c r="Q30" s="11">
+      <c r="Q30" s="12">
         <v>15</v>
       </c>
-      <c r="R30" s="11">
+      <c r="R30" s="12">
         <v>7.5</v>
       </c>
-      <c r="S30" s="11">
+      <c r="S30" s="12">
         <v>7.5</v>
       </c>
-      <c r="T30" s="11">
+      <c r="T30" s="12">
         <v>20</v>
       </c>
-      <c r="V30" s="9" t="s">
+      <c r="V30" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="W30" s="10" t="s">
+      <c r="W30" s="13" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3238,6 +3271,62 @@
       </c>
       <c r="T39" s="8">
         <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="K40" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="L40" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="M40" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="N40" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="O40" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="P40" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q40" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="R40" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="S40" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="T40" s="10" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
